--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H2">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14773152424498</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N2">
-        <v>7.14773152424498</v>
+        <v>21.568245</v>
       </c>
       <c r="O2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q2">
-        <v>79.90772047564582</v>
+        <v>82.22620687774332</v>
       </c>
       <c r="R2">
-        <v>79.90772047564582</v>
+        <v>740.03586189969</v>
       </c>
       <c r="S2">
-        <v>0.2017620369149652</v>
+        <v>0.1928691276745129</v>
       </c>
       <c r="T2">
-        <v>0.2017620369149652</v>
+        <v>0.1928691276745129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H3">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.8321182519589</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N3">
-        <v>12.8321182519589</v>
+        <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q3">
-        <v>143.4560482454994</v>
+        <v>147.6041892456216</v>
       </c>
       <c r="R3">
-        <v>143.4560482454994</v>
+        <v>1328.437703210594</v>
       </c>
       <c r="S3">
-        <v>0.3622176221458475</v>
+        <v>0.346219195824445</v>
       </c>
       <c r="T3">
-        <v>0.3622176221458475</v>
+        <v>0.346219195824445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H4">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I4">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J4">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.846400789955351</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N4">
-        <v>0.846400789955351</v>
+        <v>0.063718</v>
       </c>
       <c r="O4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q4">
-        <v>9.462296884641624</v>
+        <v>0.2429168182128889</v>
       </c>
       <c r="R4">
-        <v>9.462296884641624</v>
+        <v>2.186251363916</v>
       </c>
       <c r="S4">
-        <v>0.02389171261519451</v>
+        <v>0.000569783729606401</v>
       </c>
       <c r="T4">
-        <v>0.02389171261519451</v>
+        <v>0.000569783729606401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7376091292139</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H5">
-        <v>5.7376091292139</v>
+        <v>34.311362</v>
       </c>
       <c r="I5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.14773152424498</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N5">
-        <v>7.14773152424498</v>
+        <v>4.470329</v>
       </c>
       <c r="O5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q5">
-        <v>41.01088964667798</v>
+        <v>17.04256406423311</v>
       </c>
       <c r="R5">
-        <v>41.01088964667798</v>
+        <v>153.383076578098</v>
       </c>
       <c r="S5">
-        <v>0.1035499521392364</v>
+        <v>0.03997490081590215</v>
       </c>
       <c r="T5">
-        <v>0.1035499521392364</v>
+        <v>0.03997490081590215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H6">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J6">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.8321182519589</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N6">
-        <v>12.8321182519589</v>
+        <v>21.568245</v>
       </c>
       <c r="O6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q6">
-        <v>73.62567882959169</v>
+        <v>41.37011064629167</v>
       </c>
       <c r="R6">
-        <v>73.62567882959169</v>
+        <v>372.330995816625</v>
       </c>
       <c r="S6">
-        <v>0.1859002714816887</v>
+        <v>0.09703739787014402</v>
       </c>
       <c r="T6">
-        <v>0.1859002714816887</v>
+        <v>0.09703739787014402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H7">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J7">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.846400789955351</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N7">
-        <v>0.846400789955351</v>
+        <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q7">
-        <v>4.856316899421678</v>
+        <v>74.26344802730279</v>
       </c>
       <c r="R7">
-        <v>4.856316899421678</v>
+        <v>668.3710322457251</v>
       </c>
       <c r="S7">
-        <v>0.01226189889662182</v>
+        <v>0.1741917447368515</v>
       </c>
       <c r="T7">
-        <v>0.01226189889662182</v>
+        <v>0.1741917447368515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.0997722810893</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H8">
-        <v>2.0997722810893</v>
+        <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J8">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.14773152424498</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N8">
-        <v>7.14773152424498</v>
+        <v>0.063718</v>
       </c>
       <c r="O8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q8">
-        <v>15.00860852727778</v>
+        <v>0.1222176727944445</v>
       </c>
       <c r="R8">
-        <v>15.00860852727778</v>
+        <v>1.09995905515</v>
       </c>
       <c r="S8">
-        <v>0.03789580543279047</v>
+        <v>0.0002866727875860941</v>
       </c>
       <c r="T8">
-        <v>0.03789580543279047</v>
+        <v>0.0002866727875860941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.0997722810893</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H9">
-        <v>2.0997722810893</v>
+        <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J9">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.8321182519589</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N9">
-        <v>12.8321182519589</v>
+        <v>4.470329</v>
       </c>
       <c r="O9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q9">
-        <v>26.94452621312338</v>
+        <v>8.574550472480556</v>
       </c>
       <c r="R9">
-        <v>26.94452621312338</v>
+        <v>77.170954252325</v>
       </c>
       <c r="S9">
-        <v>0.06803325711343926</v>
+        <v>0.02011239643204364</v>
       </c>
       <c r="T9">
-        <v>0.06803325711343926</v>
+        <v>0.02011239643204364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N10">
+        <v>21.568245</v>
+      </c>
+      <c r="O10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q10">
+        <v>1.919650492093333</v>
+      </c>
+      <c r="R10">
+        <v>17.27685442884</v>
+      </c>
+      <c r="S10">
+        <v>0.004502716711722793</v>
+      </c>
+      <c r="T10">
+        <v>0.004502716711722794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N11">
+        <v>38.717137</v>
+      </c>
+      <c r="O11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q11">
+        <v>3.445962853931556</v>
+      </c>
+      <c r="R11">
+        <v>31.01366568538401</v>
+      </c>
+      <c r="S11">
+        <v>0.008082822677503937</v>
+      </c>
+      <c r="T11">
+        <v>0.008082822677503937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.063718</v>
+      </c>
+      <c r="O12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q12">
+        <v>0.005671128552888888</v>
+      </c>
+      <c r="R12">
+        <v>0.051040156976</v>
+      </c>
+      <c r="S12">
+        <v>1.330215339437923E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.330215339437923E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N13">
+        <v>4.470329</v>
+      </c>
+      <c r="O13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q13">
+        <v>0.3978751755031111</v>
+      </c>
+      <c r="R13">
+        <v>3.580876579528</v>
+      </c>
+      <c r="S13">
+        <v>0.0009332528026827886</v>
+      </c>
+      <c r="T13">
+        <v>0.0009332528026827887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.273219</v>
+      </c>
+      <c r="H14">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N14">
+        <v>21.568245</v>
+      </c>
+      <c r="O14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q14">
+        <v>16.343114776885</v>
+      </c>
+      <c r="R14">
+        <v>147.088032991965</v>
+      </c>
+      <c r="S14">
+        <v>0.03833427820875736</v>
+      </c>
+      <c r="T14">
+        <v>0.03833427820875736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.273219</v>
+      </c>
+      <c r="H15">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N15">
+        <v>38.717137</v>
+      </c>
+      <c r="O15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q15">
+        <v>29.33751048466766</v>
+      </c>
+      <c r="R15">
+        <v>264.037594362009</v>
+      </c>
+      <c r="S15">
+        <v>0.0688138279774072</v>
+      </c>
+      <c r="T15">
+        <v>0.06881382797740722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="H10">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="I10">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="J10">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.846400789955351</v>
-      </c>
-      <c r="N10">
-        <v>0.846400789955351</v>
-      </c>
-      <c r="O10">
-        <v>0.04064105477203254</v>
-      </c>
-      <c r="P10">
-        <v>0.04064105477203254</v>
-      </c>
-      <c r="Q10">
-        <v>1.777248917440333</v>
-      </c>
-      <c r="R10">
-        <v>1.777248917440333</v>
-      </c>
-      <c r="S10">
-        <v>0.004487443260216219</v>
-      </c>
-      <c r="T10">
-        <v>0.004487443260216219</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.273219</v>
+      </c>
+      <c r="H16">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.063718</v>
+      </c>
+      <c r="O16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q16">
+        <v>0.04828165608066666</v>
+      </c>
+      <c r="R16">
+        <v>0.4345349047259999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001132490630974194</v>
+      </c>
+      <c r="T16">
+        <v>0.0001132490630974194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.273219</v>
+      </c>
+      <c r="H17">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N17">
+        <v>4.470329</v>
+      </c>
+      <c r="O17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q17">
+        <v>3.387345606350332</v>
+      </c>
+      <c r="R17">
+        <v>30.48611045715299</v>
+      </c>
+      <c r="S17">
+        <v>0.007945330534342319</v>
+      </c>
+      <c r="T17">
+        <v>0.007945330534342321</v>
       </c>
     </row>
   </sheetData>
